--- a/Finnish CO2 tax Calc 2015-2019.xlsx
+++ b/Finnish CO2 tax Calc 2015-2019.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="14175" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="Verolaskuri" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Verolaskuri!$A$1:$G$49</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -430,11 +435,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color indexed="81"/>
@@ -505,6 +505,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -554,26 +559,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -582,7 +587,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -590,20 +595,20 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -611,16 +616,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,63 +633,63 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -692,7 +697,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -702,62 +707,62 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -767,123 +772,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -892,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -904,15 +909,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1163,15 +1168,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>885825</xdr:colOff>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1201,7 +1206,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="fi-FI" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1224,15 +1229,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1262,7 +1267,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="fi-FI" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1285,15 +1290,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1323,7 +1328,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="fi-FI" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1346,13 +1351,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -1384,7 +1389,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1407,13 +1412,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -1445,7 +1450,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1468,15 +1473,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1506,7 +1511,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1529,13 +1534,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -1567,7 +1572,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1590,15 +1595,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1628,7 +1633,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1651,13 +1656,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -1689,7 +1694,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1712,15 +1717,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1750,7 +1755,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1773,15 +1778,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1811,7 +1816,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1834,13 +1839,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -1872,7 +1877,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="fi-FI" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1895,15 +1900,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>1114425</xdr:colOff>
+          <xdr:colOff>1117600</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1933,7 +1938,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="sk-SK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1962,9 +1967,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1994,7 +1999,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="da-DK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2019,11 +2024,11 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2055,7 +2060,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="sk-SK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2080,11 +2085,11 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2116,7 +2121,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="sk-SK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2141,11 +2146,11 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2177,7 +2182,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="sk-SK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2202,11 +2207,11 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2238,7 +2243,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="sk-SK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2263,11 +2268,11 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2299,7 +2304,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="sk-SK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2324,11 +2329,11 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2360,7 +2365,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="sk-SK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2389,9 +2394,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2421,7 +2426,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="sk-SK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2446,11 +2451,11 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2482,7 +2487,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="da-DK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2505,13 +2510,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2543,7 +2548,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2566,13 +2571,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2604,7 +2609,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2627,13 +2632,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2665,7 +2670,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2688,13 +2693,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2726,7 +2731,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2749,13 +2754,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2787,7 +2792,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2810,13 +2815,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2848,7 +2853,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2871,13 +2876,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2909,7 +2914,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="fi-FI" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2932,13 +2937,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2970,7 +2975,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2993,13 +2998,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3031,7 +3036,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3054,13 +3059,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>749300</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1628775</xdr:colOff>
+          <xdr:colOff>1625600</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -3092,7 +3097,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="nb-NO" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3121,9 +3126,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3153,7 +3158,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="cs-CZ" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3182,9 +3187,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3214,7 +3219,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="cs-CZ" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3243,9 +3248,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3275,7 +3280,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="sk-SK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3304,9 +3309,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3336,7 +3341,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="sk-SK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3365,9 +3370,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3397,7 +3402,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="fi-FI" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3422,11 +3427,11 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3458,7 +3463,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="sk-SK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3487,9 +3492,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3519,7 +3524,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="sk-SK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3548,9 +3553,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3580,7 +3585,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="sk-SK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3609,9 +3614,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3641,7 +3646,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="sk-SK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3670,9 +3675,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3702,7 +3707,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="fr-FR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="da-DK" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3730,15 +3735,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4056,76 +4061,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Taul1">
+  <sheetPr codeName="Taul1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="20">
       <c r="A1" s="18" t="str">
         <f>"AUTOVEROLASKURI "&amp;Asetukset!B8&amp;" VEROKÄYTÄNNÖN MUKAISESTI"</f>
         <v>AUTOVEROLASKURI 1.1.2017 VEROKÄYTÄNNÖN MUKAISESTI</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="6"/>
       <c r="O2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="9"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
         <v>49</v>
       </c>
@@ -4133,7 +4138,7 @@
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="6" t="s">
         <v>50</v>
       </c>
@@ -4141,7 +4146,7 @@
       <c r="C11" s="36"/>
       <c r="D11" s="37"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
@@ -4149,7 +4154,7 @@
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -4157,7 +4162,7 @@
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
     </row>
-    <row r="14" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="31.5" customHeight="1">
       <c r="A14" s="34" t="s">
         <v>32</v>
       </c>
@@ -4165,7 +4170,7 @@
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -4173,7 +4178,7 @@
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
@@ -4181,15 +4186,15 @@
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="B19" s="7" t="s">
         <v>12</v>
       </c>
@@ -4197,13 +4202,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="B20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="11"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="B22" s="7" t="s">
         <v>11</v>
       </c>
@@ -4213,7 +4218,7 @@
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="C23" s="7" t="s">
         <v>69</v>
       </c>
@@ -4224,7 +4229,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="31" thickBot="1">
       <c r="B24" s="13"/>
       <c r="C24" s="14" t="s">
         <v>8</v>
@@ -4248,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="16" thickBot="1">
       <c r="A25" s="7" t="s">
         <v>70</v>
       </c>
@@ -4277,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="B26" s="33" t="s">
         <v>29</v>
       </c>
@@ -4306,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="B27" s="33" t="s">
         <v>30</v>
       </c>
@@ -4335,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="B28" s="33" t="s">
         <v>0</v>
       </c>
@@ -4366,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="B29" s="33" t="s">
         <v>1</v>
       </c>
@@ -4397,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="B30" s="33" t="s">
         <v>2</v>
       </c>
@@ -4428,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="B31" s="33" t="s">
         <v>3</v>
       </c>
@@ -4457,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="B32" s="33" t="s">
         <v>4</v>
       </c>
@@ -4486,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15">
       <c r="B33" s="33" t="s">
         <v>5</v>
       </c>
@@ -4515,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15">
       <c r="B34" s="33" t="s">
         <v>6</v>
       </c>
@@ -4544,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15">
       <c r="B35" s="33" t="s">
         <v>7</v>
       </c>
@@ -4573,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15">
       <c r="B36" s="33" t="s">
         <v>37</v>
       </c>
@@ -4600,7 +4605,7 @@
       </c>
       <c r="O36" s="31"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15">
       <c r="B37" s="33" t="s">
         <v>38</v>
       </c>
@@ -4627,7 +4632,7 @@
       </c>
       <c r="O37" s="31"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15">
       <c r="B38" s="33" t="s">
         <v>39</v>
       </c>
@@ -4654,7 +4659,7 @@
       </c>
       <c r="O38" s="31"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15">
       <c r="B39" s="33" t="s">
         <v>40</v>
       </c>
@@ -4681,7 +4686,7 @@
       </c>
       <c r="O39" s="31"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15">
       <c r="B40" s="33" t="s">
         <v>41</v>
       </c>
@@ -4708,7 +4713,7 @@
       </c>
       <c r="O40" s="31"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15">
       <c r="B41" s="33" t="s">
         <v>42</v>
       </c>
@@ -4735,7 +4740,7 @@
       </c>
       <c r="O41" s="31"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15">
       <c r="B42" s="33" t="s">
         <v>43</v>
       </c>
@@ -4762,7 +4767,7 @@
       </c>
       <c r="O42" s="31"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15">
       <c r="B43" s="33" t="s">
         <v>44</v>
       </c>
@@ -4789,7 +4794,7 @@
       </c>
       <c r="O43" s="31"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15">
       <c r="B44" s="33" t="s">
         <v>45</v>
       </c>
@@ -4818,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15">
       <c r="B45" s="33" t="s">
         <v>46</v>
       </c>
@@ -4847,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15">
       <c r="B46" s="17" t="s">
         <v>10</v>
       </c>
@@ -4876,12 +4881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15">
       <c r="F47" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="14">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -4893,7 +4898,7 @@
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="14">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -4905,7 +4910,7 @@
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="14">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -4917,7 +4922,7 @@
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="14">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -4929,7 +4934,7 @@
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="14">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -4941,7 +4946,7 @@
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54"/>
       <c r="B54"/>
       <c r="D54"/>
@@ -4952,7 +4957,7 @@
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="14">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -4964,7 +4969,7 @@
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="14">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -4976,7 +4981,7 @@
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="14">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -4997,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="14">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -5016,7 +5021,7 @@
         <v>3.9319999999999997E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="14">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -5035,7 +5040,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="14">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -5054,7 +5059,7 @@
         <v>7.332E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="14">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -5066,7 +5071,7 @@
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="14">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -5078,7 +5083,7 @@
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3">
       <c r="B87" s="7" t="s">
         <v>21</v>
       </c>
@@ -5087,7 +5092,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3">
       <c r="B88" s="7" t="s">
         <v>22</v>
       </c>
@@ -5096,7 +5101,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3">
       <c r="B89" s="7" t="s">
         <v>23</v>
       </c>
@@ -5105,7 +5110,7 @@
         <v>11068.802804878049</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3">
       <c r="B90" s="7" t="s">
         <v>24</v>
       </c>
@@ -5114,12 +5119,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3">
       <c r="B91" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3">
       <c r="B92" s="7" t="s">
         <v>26</v>
       </c>
@@ -5148,98 +5153,100 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;D</oddFooter>
   </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="B25" unlockedFormula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId4" name="Option Button 1">
+            <control shapeId="1025" r:id="rId3" name="Option Button 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>885825</xdr:colOff>
+                    <xdr:colOff>889000</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId5" name="Option Button 2">
+            <control shapeId="1026" r:id="rId4" name="Option Button 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId6" name="Check Box 3">
+            <control shapeId="1027" r:id="rId5" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId7" name="Check Box 4">
+            <control shapeId="1028" r:id="rId6" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -5247,21 +5254,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId8" name="Check Box 5">
+            <control shapeId="1029" r:id="rId7" name="Check Box 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -5269,43 +5277,45 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId9" name="Check Box 6">
+            <control shapeId="1030" r:id="rId8" name="Check Box 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId10" name="Check Box 7">
+            <control shapeId="1031" r:id="rId9" name="Check Box 7">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -5313,43 +5323,45 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId11" name="Check Box 8">
+            <control shapeId="1032" r:id="rId10" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId12" name="Check Box 9">
+            <control shapeId="1033" r:id="rId11" name="Check Box 9">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -5357,65 +5369,68 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId13" name="Check Box 10">
+            <control shapeId="1034" r:id="rId12" name="Check Box 10">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId14" name="Check Box 11">
+            <control shapeId="1035" r:id="rId13" name="Check Box 11">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId15" name="Check Box 12">
+            <control shapeId="1036" r:id="rId14" name="Check Box 12">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -5423,32 +5438,34 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId16" name="Check Box 13">
+            <control shapeId="1037" r:id="rId15" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>1114425</xdr:colOff>
+                    <xdr:colOff>1117600</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId17" name="Check Box 14">
+            <control shapeId="1038" r:id="rId16" name="Check Box 14">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5459,29 +5476,30 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId18" name="Check Box 15">
+            <control shapeId="1039" r:id="rId17" name="Check Box 15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5489,21 +5507,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId19" name="Check Box 16">
+            <control shapeId="1040" r:id="rId18" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5511,21 +5530,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId20" name="Check Box 17">
+            <control shapeId="1041" r:id="rId19" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5533,21 +5553,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1042" r:id="rId21" name="Check Box 18">
+            <control shapeId="1042" r:id="rId20" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -5555,21 +5576,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1043" r:id="rId22" name="Check Box 19">
+            <control shapeId="1043" r:id="rId21" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5577,21 +5599,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId23" name="Check Box 20">
+            <control shapeId="1044" r:id="rId22" name="Check Box 20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5599,10 +5622,11 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1045" r:id="rId24" name="Check Box 21">
+            <control shapeId="1045" r:id="rId23" name="Check Box 21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5613,29 +5637,30 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1046" r:id="rId25" name="Check Box 22">
+            <control shapeId="1046" r:id="rId24" name="Check Box 22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5643,21 +5668,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId26" name="Check Box 37">
+            <control shapeId="1061" r:id="rId25" name="Check Box 37">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="Tarvike 11">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5665,21 +5691,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId27" name="Check Box 38">
+            <control shapeId="1062" r:id="rId26" name="Check Box 38">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -5687,21 +5714,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId28" name="Check Box 39">
+            <control shapeId="1063" r:id="rId27" name="Check Box 39">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -5709,21 +5737,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId29" name="Check Box 40">
+            <control shapeId="1064" r:id="rId28" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -5731,21 +5760,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId30" name="Check Box 41">
+            <control shapeId="1065" r:id="rId29" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -5753,21 +5783,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId31" name="Check Box 42">
+            <control shapeId="1066" r:id="rId30" name="Check Box 42">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -5775,21 +5806,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId32" name="Check Box 43">
+            <control shapeId="1067" r:id="rId31" name="Check Box 43">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -5797,21 +5829,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId33" name="Check Box 44">
+            <control shapeId="1068" r:id="rId32" name="Check Box 44">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -5819,21 +5852,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId34" name="Check Box 45">
+            <control shapeId="1069" r:id="rId33" name="Check Box 45">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5841,21 +5875,22 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId35" name="Check Box 46">
+            <control shapeId="1070" r:id="rId34" name="Check Box 46">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:colOff>1625600</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -5863,10 +5898,11 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId36" name="Check Box 48">
+            <control shapeId="1072" r:id="rId35" name="Check Box 48">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5877,18 +5913,19 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId37" name="Check Box 49">
+            <control shapeId="1073" r:id="rId36" name="Check Box 49">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5899,18 +5936,19 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId38" name="Check Box 50">
+            <control shapeId="1074" r:id="rId37" name="Check Box 50">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5921,18 +5959,19 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId39" name="Check Box 51">
+            <control shapeId="1075" r:id="rId38" name="Check Box 51">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5943,18 +5982,19 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId40" name="Check Box 52">
+            <control shapeId="1076" r:id="rId39" name="Check Box 52">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5965,29 +6005,30 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId41" name="Check Box 53">
+            <control shapeId="1077" r:id="rId40" name="Check Box 53">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5995,10 +6036,11 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId42" name="Check Box 54">
+            <control shapeId="1078" r:id="rId41" name="Check Box 54">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6009,18 +6051,19 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1079" r:id="rId43" name="Check Box 55">
+            <control shapeId="1079" r:id="rId42" name="Check Box 55">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6031,18 +6074,19 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1080" r:id="rId44" name="Check Box 56">
+            <control shapeId="1080" r:id="rId43" name="Check Box 56">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6053,18 +6097,19 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1081" r:id="rId45" name="Check Box 57">
+            <control shapeId="1081" r:id="rId44" name="Check Box 57">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6075,33 +6120,40 @@
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Taul5"/>
+  <sheetPr codeName="Taul5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T405"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="52" t="s">
         <v>53</v>
       </c>
@@ -6131,7 +6183,7 @@
       </c>
       <c r="T1" s="52"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="52"/>
       <c r="B2" s="52"/>
       <c r="D2" s="52"/>
@@ -6147,7 +6199,7 @@
       <c r="S2" s="52"/>
       <c r="T2" s="52"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="D3" s="52"/>
@@ -6163,7 +6215,7 @@
       <c r="S3" s="52"/>
       <c r="T3" s="52"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="42" t="s">
         <v>12</v>
       </c>
@@ -6208,7 +6260,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="46">
         <v>0</v>
       </c>
@@ -6252,7 +6304,7 @@
         <v>43.07</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="46">
         <v>1</v>
       </c>
@@ -6296,7 +6348,7 @@
         <v>43.435000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="46">
         <v>2</v>
       </c>
@@ -6340,7 +6392,7 @@
         <v>43.435000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="46">
         <v>3</v>
       </c>
@@ -6384,7 +6436,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="46">
         <v>4</v>
       </c>
@@ -6428,7 +6480,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="46">
         <v>5</v>
       </c>
@@ -6472,7 +6524,7 @@
         <v>44.164999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="46">
         <v>6</v>
       </c>
@@ -6516,7 +6568,7 @@
         <v>44.53</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="46">
         <v>7</v>
       </c>
@@ -6560,7 +6612,7 @@
         <v>44.53</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="46">
         <v>8</v>
       </c>
@@ -6604,7 +6656,7 @@
         <v>44.895000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="46">
         <v>9</v>
       </c>
@@ -6648,7 +6700,7 @@
         <v>44.895000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="46">
         <v>10</v>
       </c>
@@ -6692,7 +6744,7 @@
         <v>45.26</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="46">
         <v>11</v>
       </c>
@@ -6736,7 +6788,7 @@
         <v>45.625</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="46">
         <v>12</v>
       </c>
@@ -6780,7 +6832,7 @@
         <v>45.625</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="46">
         <v>13</v>
       </c>
@@ -6824,7 +6876,7 @@
         <v>45.99</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="46">
         <v>14</v>
       </c>
@@ -6868,7 +6920,7 @@
         <v>46.354999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="46">
         <v>15</v>
       </c>
@@ -6912,7 +6964,7 @@
         <v>46.354999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="46">
         <v>16</v>
       </c>
@@ -6956,7 +7008,7 @@
         <v>46.72</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="46">
         <v>17</v>
       </c>
@@ -7000,7 +7052,7 @@
         <v>47.085000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="46">
         <v>18</v>
       </c>
@@ -7044,7 +7096,7 @@
         <v>47.085000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="46">
         <v>19</v>
       </c>
@@ -7088,7 +7140,7 @@
         <v>47.45</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="46">
         <v>20</v>
       </c>
@@ -7132,7 +7184,7 @@
         <v>47.814999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="46">
         <v>21</v>
       </c>
@@ -7176,7 +7228,7 @@
         <v>48.18</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="46">
         <v>22</v>
       </c>
@@ -7214,7 +7266,7 @@
         <v>48.18</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="46">
         <v>23</v>
       </c>
@@ -7252,7 +7304,7 @@
         <v>48.545000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="46">
         <v>24</v>
       </c>
@@ -7290,7 +7342,7 @@
         <v>48.91</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="46">
         <v>25</v>
       </c>
@@ -7328,7 +7380,7 @@
         <v>49.274999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31" s="46">
         <v>26</v>
       </c>
@@ -7366,7 +7418,7 @@
         <v>49.274999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32" s="46">
         <v>27</v>
       </c>
@@ -7404,7 +7456,7 @@
         <v>49.64</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33" s="46">
         <v>28</v>
       </c>
@@ -7442,7 +7494,7 @@
         <v>50.005000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" s="46">
         <v>29</v>
       </c>
@@ -7480,7 +7532,7 @@
         <v>50.37</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" s="46">
         <v>30</v>
       </c>
@@ -7518,7 +7570,7 @@
         <v>50.734999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" s="46">
         <v>31</v>
       </c>
@@ -7556,7 +7608,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" s="46">
         <v>32</v>
       </c>
@@ -7594,7 +7646,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" s="46">
         <v>33</v>
       </c>
@@ -7632,7 +7684,7 @@
         <v>51.465000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" s="46">
         <v>34</v>
       </c>
@@ -7670,7 +7722,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40" s="46">
         <v>35</v>
       </c>
@@ -7708,7 +7760,7 @@
         <v>52.195</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="46">
         <v>36</v>
       </c>
@@ -7746,7 +7798,7 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" s="46">
         <v>37</v>
       </c>
@@ -7784,7 +7836,7 @@
         <v>52.924999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" s="46">
         <v>38</v>
       </c>
@@ -7822,7 +7874,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="A44" s="46">
         <v>39</v>
       </c>
@@ -7860,7 +7912,7 @@
         <v>53.655000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="A45" s="46">
         <v>40</v>
       </c>
@@ -7898,7 +7950,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="A46" s="46">
         <v>41</v>
       </c>
@@ -7936,7 +7988,7 @@
         <v>54.384999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" s="46">
         <v>42</v>
       </c>
@@ -7974,7 +8026,7 @@
         <v>54.75</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" s="46">
         <v>43</v>
       </c>
@@ -8012,7 +8064,7 @@
         <v>55.115000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" s="46">
         <v>44</v>
       </c>
@@ -8050,7 +8102,7 @@
         <v>55.48</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="A50" s="46">
         <v>45</v>
       </c>
@@ -8088,7 +8140,7 @@
         <v>55.844999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51" s="46">
         <v>46</v>
       </c>
@@ -8126,7 +8178,7 @@
         <v>56.21</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" s="46">
         <v>47</v>
       </c>
@@ -8164,7 +8216,7 @@
         <v>56.575000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53" s="46">
         <v>48</v>
       </c>
@@ -8202,7 +8254,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="A54" s="46">
         <v>49</v>
       </c>
@@ -8240,7 +8292,7 @@
         <v>57.305</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" s="46">
         <v>50</v>
       </c>
@@ -8278,7 +8330,7 @@
         <v>57.67</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" s="46">
         <v>51</v>
       </c>
@@ -8316,7 +8368,7 @@
         <v>58.034999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" s="46">
         <v>52</v>
       </c>
@@ -8354,7 +8406,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" s="46">
         <v>53</v>
       </c>
@@ -8392,7 +8444,7 @@
         <v>58.765000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" s="46">
         <v>54</v>
       </c>
@@ -8430,7 +8482,7 @@
         <v>59.13</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="A60" s="46">
         <v>55</v>
       </c>
@@ -8468,7 +8520,7 @@
         <v>59.494999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" s="46">
         <v>56</v>
       </c>
@@ -8506,7 +8558,7 @@
         <v>60.225000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" s="46">
         <v>57</v>
       </c>
@@ -8544,7 +8596,7 @@
         <v>60.59</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" s="46">
         <v>58</v>
       </c>
@@ -8582,7 +8634,7 @@
         <v>60.954999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="A64" s="46">
         <v>59</v>
       </c>
@@ -8620,7 +8672,7 @@
         <v>61.32</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20">
       <c r="A65" s="46">
         <v>60</v>
       </c>
@@ -8658,7 +8710,7 @@
         <v>61.685000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20">
       <c r="A66" s="46">
         <v>61</v>
       </c>
@@ -8696,7 +8748,7 @@
         <v>62.414999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20">
       <c r="A67" s="46">
         <v>62</v>
       </c>
@@ -8734,7 +8786,7 @@
         <v>62.78</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20">
       <c r="A68" s="46">
         <v>63</v>
       </c>
@@ -8772,7 +8824,7 @@
         <v>63.145000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20">
       <c r="A69" s="46">
         <v>64</v>
       </c>
@@ -8810,7 +8862,7 @@
         <v>63.875</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" s="46">
         <v>65</v>
       </c>
@@ -8848,7 +8900,7 @@
         <v>64.239999999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="A71" s="46">
         <v>66</v>
       </c>
@@ -8886,7 +8938,7 @@
         <v>64.605000000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" s="46">
         <v>67</v>
       </c>
@@ -8924,7 +8976,7 @@
         <v>64.97</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="A73" s="46">
         <v>68</v>
       </c>
@@ -8962,7 +9014,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="A74" s="46">
         <v>69</v>
       </c>
@@ -9000,7 +9052,7 @@
         <v>66.064999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20">
       <c r="A75" s="46">
         <v>70</v>
       </c>
@@ -9038,7 +9090,7 @@
         <v>66.795000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20">
       <c r="A76" s="46">
         <v>71</v>
       </c>
@@ -9076,7 +9128,7 @@
         <v>67.16</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20">
       <c r="A77" s="46">
         <v>72</v>
       </c>
@@ -9114,7 +9166,7 @@
         <v>67.525000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20">
       <c r="A78" s="46">
         <v>73</v>
       </c>
@@ -9152,7 +9204,7 @@
         <v>68.254999999999995</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20">
       <c r="A79" s="46">
         <v>74</v>
       </c>
@@ -9190,7 +9242,7 @@
         <v>68.62</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20">
       <c r="A80" s="46">
         <v>75</v>
       </c>
@@ -9228,7 +9280,7 @@
         <v>69.349999999999994</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" s="46">
         <v>76</v>
       </c>
@@ -9266,7 +9318,7 @@
         <v>69.715000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20">
       <c r="A82" s="46">
         <v>77</v>
       </c>
@@ -9304,7 +9356,7 @@
         <v>70.444999999999993</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20">
       <c r="A83" s="46">
         <v>78</v>
       </c>
@@ -9342,7 +9394,7 @@
         <v>70.81</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20">
       <c r="A84" s="46">
         <v>79</v>
       </c>
@@ -9380,7 +9432,7 @@
         <v>71.540000000000006</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20">
       <c r="A85" s="46">
         <v>80</v>
       </c>
@@ -9418,7 +9470,7 @@
         <v>72.27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20">
       <c r="A86" s="46">
         <v>81</v>
       </c>
@@ -9456,7 +9508,7 @@
         <v>72.635000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20">
       <c r="A87" s="46">
         <v>82</v>
       </c>
@@ -9494,7 +9546,7 @@
         <v>73.364999999999995</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20">
       <c r="A88" s="46">
         <v>83</v>
       </c>
@@ -9532,7 +9584,7 @@
         <v>73.73</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20">
       <c r="A89" s="46">
         <v>84</v>
       </c>
@@ -9570,7 +9622,7 @@
         <v>74.459999999999994</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20">
       <c r="A90" s="46">
         <v>85</v>
       </c>
@@ -9608,7 +9660,7 @@
         <v>75.19</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20">
       <c r="A91" s="46">
         <v>86</v>
       </c>
@@ -9646,7 +9698,7 @@
         <v>75.555000000000007</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20">
       <c r="A92" s="46">
         <v>87</v>
       </c>
@@ -9684,7 +9736,7 @@
         <v>76.284999999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20">
       <c r="A93" s="46">
         <v>88</v>
       </c>
@@ -9722,7 +9774,7 @@
         <v>77.015000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20">
       <c r="A94" s="46">
         <v>89</v>
       </c>
@@ -9760,7 +9812,7 @@
         <v>77.745000000000005</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20">
       <c r="A95" s="46">
         <v>90</v>
       </c>
@@ -9798,7 +9850,7 @@
         <v>78.11</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20">
       <c r="A96" s="46">
         <v>91</v>
       </c>
@@ -9836,7 +9888,7 @@
         <v>78.84</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20">
       <c r="A97" s="46">
         <v>92</v>
       </c>
@@ -9874,7 +9926,7 @@
         <v>79.569999999999993</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20">
       <c r="A98" s="46">
         <v>93</v>
       </c>
@@ -9912,7 +9964,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20">
       <c r="A99" s="46">
         <v>94</v>
       </c>
@@ -9950,7 +10002,7 @@
         <v>81.03</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20">
       <c r="A100" s="46">
         <v>95</v>
       </c>
@@ -9988,7 +10040,7 @@
         <v>81.760000000000005</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20">
       <c r="A101" s="46">
         <v>96</v>
       </c>
@@ -10026,7 +10078,7 @@
         <v>82.49</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20">
       <c r="A102" s="46">
         <v>97</v>
       </c>
@@ -10064,7 +10116,7 @@
         <v>83.22</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20">
       <c r="A103" s="46">
         <v>98</v>
       </c>
@@ -10102,7 +10154,7 @@
         <v>83.584999999999994</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20">
       <c r="A104" s="46">
         <v>99</v>
       </c>
@@ -10140,7 +10192,7 @@
         <v>84.314999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20">
       <c r="A105" s="46">
         <v>100</v>
       </c>
@@ -10178,7 +10230,7 @@
         <v>85.045000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20">
       <c r="A106" s="46">
         <v>101</v>
       </c>
@@ -10216,7 +10268,7 @@
         <v>86.14</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20">
       <c r="A107" s="46">
         <v>102</v>
       </c>
@@ -10254,7 +10306,7 @@
         <v>86.87</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20">
       <c r="A108" s="46">
         <v>103</v>
       </c>
@@ -10292,7 +10344,7 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20">
       <c r="A109" s="46">
         <v>104</v>
       </c>
@@ -10330,7 +10382,7 @@
         <v>88.33</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20">
       <c r="A110" s="46">
         <v>105</v>
       </c>
@@ -10368,7 +10420,7 @@
         <v>89.06</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20">
       <c r="A111" s="46">
         <v>106</v>
       </c>
@@ -10406,7 +10458,7 @@
         <v>89.79</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20">
       <c r="A112" s="46">
         <v>107</v>
       </c>
@@ -10444,7 +10496,7 @@
         <v>90.52</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20">
       <c r="A113" s="46">
         <v>108</v>
       </c>
@@ -10482,7 +10534,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20">
       <c r="A114" s="46">
         <v>109</v>
       </c>
@@ -10520,7 +10572,7 @@
         <v>92.344999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20">
       <c r="A115" s="46">
         <v>110</v>
       </c>
@@ -10558,7 +10610,7 @@
         <v>93.075000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20">
       <c r="A116" s="46">
         <v>111</v>
       </c>
@@ -10596,7 +10648,7 @@
         <v>93.805000000000007</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20">
       <c r="A117" s="46">
         <v>112</v>
       </c>
@@ -10634,7 +10686,7 @@
         <v>94.534999999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20">
       <c r="A118" s="46">
         <v>113</v>
       </c>
@@ -10672,7 +10724,7 @@
         <v>95.63</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20">
       <c r="A119" s="46">
         <v>114</v>
       </c>
@@ -10710,7 +10762,7 @@
         <v>96.36</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20">
       <c r="A120" s="46">
         <v>115</v>
       </c>
@@ -10748,7 +10800,7 @@
         <v>97.454999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20">
       <c r="A121" s="46">
         <v>116</v>
       </c>
@@ -10786,7 +10838,7 @@
         <v>98.185000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20">
       <c r="A122" s="46">
         <v>117</v>
       </c>
@@ -10824,7 +10876,7 @@
         <v>98.915000000000006</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20">
       <c r="A123" s="46">
         <v>118</v>
       </c>
@@ -10862,7 +10914,7 @@
         <v>100.01</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20">
       <c r="A124" s="46">
         <v>119</v>
       </c>
@@ -10900,7 +10952,7 @@
         <v>100.74</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20">
       <c r="A125" s="46">
         <v>120</v>
       </c>
@@ -10938,7 +10990,7 @@
         <v>101.83499999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20">
       <c r="A126" s="46">
         <v>121</v>
       </c>
@@ -10976,7 +11028,7 @@
         <v>102.565</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20">
       <c r="A127" s="46">
         <v>122</v>
       </c>
@@ -11014,7 +11066,7 @@
         <v>103.66</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20">
       <c r="A128" s="46">
         <v>123</v>
       </c>
@@ -11052,7 +11104,7 @@
         <v>104.755</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20">
       <c r="A129" s="46">
         <v>124</v>
       </c>
@@ -11090,7 +11142,7 @@
         <v>105.485</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20">
       <c r="A130" s="46">
         <v>125</v>
       </c>
@@ -11128,7 +11180,7 @@
         <v>106.58</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20">
       <c r="A131" s="46">
         <v>126</v>
       </c>
@@ -11166,7 +11218,7 @@
         <v>107.675</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20">
       <c r="A132" s="46">
         <v>127</v>
       </c>
@@ -11204,7 +11256,7 @@
         <v>108.405</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20">
       <c r="A133" s="46">
         <v>128</v>
       </c>
@@ -11242,7 +11294,7 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20">
       <c r="A134" s="46">
         <v>129</v>
       </c>
@@ -11280,7 +11332,7 @@
         <v>110.595</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20">
       <c r="A135" s="46">
         <v>130</v>
       </c>
@@ -11318,7 +11370,7 @@
         <v>111.69</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20">
       <c r="A136" s="46">
         <v>131</v>
       </c>
@@ -11356,7 +11408,7 @@
         <v>112.785</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20">
       <c r="A137" s="46">
         <v>132</v>
       </c>
@@ -11394,7 +11446,7 @@
         <v>113.515</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20">
       <c r="A138" s="46">
         <v>133</v>
       </c>
@@ -11432,7 +11484,7 @@
         <v>114.61</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20">
       <c r="A139" s="46">
         <v>134</v>
       </c>
@@ -11470,7 +11522,7 @@
         <v>115.705</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20">
       <c r="A140" s="46">
         <v>135</v>
       </c>
@@ -11508,7 +11560,7 @@
         <v>116.8</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20">
       <c r="A141" s="46">
         <v>136</v>
       </c>
@@ -11546,7 +11598,7 @@
         <v>117.895</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20">
       <c r="A142" s="46">
         <v>137</v>
       </c>
@@ -11584,7 +11636,7 @@
         <v>118.99</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20">
       <c r="A143" s="46">
         <v>138</v>
       </c>
@@ -11622,7 +11674,7 @@
         <v>120.08499999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20">
       <c r="A144" s="46">
         <v>139</v>
       </c>
@@ -11660,7 +11712,7 @@
         <v>121.18</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20">
       <c r="A145" s="46">
         <v>140</v>
       </c>
@@ -11698,7 +11750,7 @@
         <v>122.64</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20">
       <c r="A146" s="46">
         <v>141</v>
       </c>
@@ -11736,7 +11788,7 @@
         <v>123.735</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20">
       <c r="A147" s="46">
         <v>142</v>
       </c>
@@ -11774,7 +11826,7 @@
         <v>124.83</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20">
       <c r="A148" s="46">
         <v>143</v>
       </c>
@@ -11812,7 +11864,7 @@
         <v>125.925</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20">
       <c r="A149" s="46">
         <v>144</v>
       </c>
@@ -11850,7 +11902,7 @@
         <v>127.02</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20">
       <c r="A150" s="46">
         <v>145</v>
       </c>
@@ -11888,7 +11940,7 @@
         <v>128.47999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20">
       <c r="A151" s="46">
         <v>146</v>
       </c>
@@ -11926,7 +11978,7 @@
         <v>129.57499999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20">
       <c r="A152" s="46">
         <v>147</v>
       </c>
@@ -11964,7 +12016,7 @@
         <v>130.66999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20">
       <c r="A153" s="46">
         <v>148</v>
       </c>
@@ -12002,7 +12054,7 @@
         <v>132.13</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20">
       <c r="A154" s="46">
         <v>149</v>
       </c>
@@ -12040,7 +12092,7 @@
         <v>133.22499999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20">
       <c r="A155" s="46">
         <v>150</v>
       </c>
@@ -12078,7 +12130,7 @@
         <v>134.685</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20">
       <c r="A156" s="46">
         <v>151</v>
       </c>
@@ -12116,7 +12168,7 @@
         <v>135.78</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20">
       <c r="A157" s="46">
         <v>152</v>
       </c>
@@ -12154,7 +12206,7 @@
         <v>137.24</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20">
       <c r="A158" s="46">
         <v>153</v>
       </c>
@@ -12192,7 +12244,7 @@
         <v>138.33500000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20">
       <c r="A159" s="46">
         <v>154</v>
       </c>
@@ -12230,7 +12282,7 @@
         <v>139.79499999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20">
       <c r="A160" s="46">
         <v>155</v>
       </c>
@@ -12268,7 +12320,7 @@
         <v>140.88999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20">
       <c r="A161" s="46">
         <v>156</v>
       </c>
@@ -12306,7 +12358,7 @@
         <v>142.35</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20">
       <c r="A162" s="46">
         <v>157</v>
       </c>
@@ -12344,7 +12396,7 @@
         <v>143.81</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20">
       <c r="A163" s="46">
         <v>158</v>
       </c>
@@ -12382,7 +12434,7 @@
         <v>145.27000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20">
       <c r="A164" s="46">
         <v>159</v>
       </c>
@@ -12420,7 +12472,7 @@
         <v>146.36500000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20">
       <c r="A165" s="46">
         <v>160</v>
       </c>
@@ -12458,7 +12510,7 @@
         <v>147.82499999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20">
       <c r="A166" s="46">
         <v>161</v>
       </c>
@@ -12496,7 +12548,7 @@
         <v>149.285</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20">
       <c r="A167" s="46">
         <v>162</v>
       </c>
@@ -12534,7 +12586,7 @@
         <v>150.745</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20">
       <c r="A168" s="46">
         <v>163</v>
       </c>
@@ -12572,7 +12624,7 @@
         <v>152.20500000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20">
       <c r="A169" s="46">
         <v>164</v>
       </c>
@@ -12610,7 +12662,7 @@
         <v>153.66499999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20">
       <c r="A170" s="46">
         <v>165</v>
       </c>
@@ -12648,7 +12700,7 @@
         <v>155.125</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20">
       <c r="A171" s="46">
         <v>166</v>
       </c>
@@ -12686,7 +12738,7 @@
         <v>156.58500000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20">
       <c r="A172" s="46">
         <v>167</v>
       </c>
@@ -12724,7 +12776,7 @@
         <v>158.04499999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20">
       <c r="A173" s="46">
         <v>168</v>
       </c>
@@ -12762,7 +12814,7 @@
         <v>159.505</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20">
       <c r="A174" s="46">
         <v>169</v>
       </c>
@@ -12800,7 +12852,7 @@
         <v>160.965</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20">
       <c r="A175" s="46">
         <v>170</v>
       </c>
@@ -12838,7 +12890,7 @@
         <v>162.42500000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20">
       <c r="A176" s="46">
         <v>171</v>
       </c>
@@ -12876,7 +12928,7 @@
         <v>163.88499999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20">
       <c r="A177" s="46">
         <v>172</v>
       </c>
@@ -12914,7 +12966,7 @@
         <v>165.345</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20">
       <c r="A178" s="46">
         <v>173</v>
       </c>
@@ -12952,7 +13004,7 @@
         <v>167.17</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20">
       <c r="A179" s="46">
         <v>174</v>
       </c>
@@ -12990,7 +13042,7 @@
         <v>168.63</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20">
       <c r="A180" s="46">
         <v>175</v>
       </c>
@@ -13028,7 +13080,7 @@
         <v>170.09</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20">
       <c r="A181" s="46">
         <v>176</v>
       </c>
@@ -13066,7 +13118,7 @@
         <v>171.91499999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20">
       <c r="A182" s="46">
         <v>177</v>
       </c>
@@ -13104,7 +13156,7 @@
         <v>173.375</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20">
       <c r="A183" s="46">
         <v>178</v>
       </c>
@@ -13142,7 +13194,7 @@
         <v>174.83500000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20">
       <c r="A184" s="46">
         <v>179</v>
       </c>
@@ -13180,7 +13232,7 @@
         <v>176.66</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20">
       <c r="A185" s="46">
         <v>180</v>
       </c>
@@ -13218,7 +13270,7 @@
         <v>178.12</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20">
       <c r="A186" s="46">
         <v>181</v>
       </c>
@@ -13256,7 +13308,7 @@
         <v>179.94499999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20">
       <c r="A187" s="46">
         <v>182</v>
       </c>
@@ -13294,7 +13346,7 @@
         <v>181.405</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20">
       <c r="A188" s="46">
         <v>183</v>
       </c>
@@ -13332,7 +13384,7 @@
         <v>183.23</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20">
       <c r="A189" s="46">
         <v>184</v>
       </c>
@@ -13370,7 +13422,7 @@
         <v>185.05500000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20">
       <c r="A190" s="46">
         <v>185</v>
       </c>
@@ -13408,7 +13460,7 @@
         <v>186.51499999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20">
       <c r="A191" s="46">
         <v>186</v>
       </c>
@@ -13446,7 +13498,7 @@
         <v>188.34</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20">
       <c r="A192" s="46">
         <v>187</v>
       </c>
@@ -13484,7 +13536,7 @@
         <v>190.16499999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20">
       <c r="A193" s="46">
         <v>188</v>
       </c>
@@ -13522,7 +13574,7 @@
         <v>191.99</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20">
       <c r="A194" s="46">
         <v>189</v>
       </c>
@@ -13560,7 +13612,7 @@
         <v>193.45</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20">
       <c r="A195" s="46">
         <v>190</v>
       </c>
@@ -13598,7 +13650,7 @@
         <v>195.27500000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20">
       <c r="A196" s="46">
         <v>191</v>
       </c>
@@ -13636,7 +13688,7 @@
         <v>197.1</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20">
       <c r="A197" s="46">
         <v>192</v>
       </c>
@@ -13674,7 +13726,7 @@
         <v>198.92500000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20">
       <c r="A198" s="46">
         <v>193</v>
       </c>
@@ -13712,7 +13764,7 @@
         <v>200.75</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20">
       <c r="A199" s="46">
         <v>194</v>
       </c>
@@ -13750,7 +13802,7 @@
         <v>202.57499999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20">
       <c r="A200" s="46">
         <v>195</v>
       </c>
@@ -13788,7 +13840,7 @@
         <v>204.4</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20">
       <c r="A201" s="46">
         <v>196</v>
       </c>
@@ -13826,7 +13878,7 @@
         <v>206.22499999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20">
       <c r="A202" s="46">
         <v>197</v>
       </c>
@@ -13864,7 +13916,7 @@
         <v>208.05</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20">
       <c r="A203" s="46">
         <v>198</v>
       </c>
@@ -13902,7 +13954,7 @@
         <v>209.875</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20">
       <c r="A204" s="46">
         <v>199</v>
       </c>
@@ -13940,7 +13992,7 @@
         <v>211.7</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20">
       <c r="A205" s="46">
         <v>200</v>
       </c>
@@ -13978,7 +14030,7 @@
         <v>213.89</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20">
       <c r="A206" s="46">
         <v>201</v>
       </c>
@@ -14016,7 +14068,7 @@
         <v>215.715</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20">
       <c r="A207" s="46">
         <v>202</v>
       </c>
@@ -14054,7 +14106,7 @@
         <v>217.54</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20">
       <c r="A208" s="46">
         <v>203</v>
       </c>
@@ -14092,7 +14144,7 @@
         <v>219.36500000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20">
       <c r="A209" s="46">
         <v>204</v>
       </c>
@@ -14130,7 +14182,7 @@
         <v>221.55500000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20">
       <c r="A210" s="46">
         <v>205</v>
       </c>
@@ -14168,7 +14220,7 @@
         <v>223.38</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20">
       <c r="A211" s="46">
         <v>206</v>
       </c>
@@ -14206,7 +14258,7 @@
         <v>225.20500000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20">
       <c r="A212" s="46">
         <v>207</v>
       </c>
@@ -14244,7 +14296,7 @@
         <v>227.39500000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20">
       <c r="A213" s="46">
         <v>208</v>
       </c>
@@ -14282,7 +14334,7 @@
         <v>229.22</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20">
       <c r="A214" s="46">
         <v>209</v>
       </c>
@@ -14320,7 +14372,7 @@
         <v>231.41</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20">
       <c r="A215" s="46">
         <v>210</v>
       </c>
@@ -14358,7 +14410,7 @@
         <v>233.23500000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20">
       <c r="A216" s="46">
         <v>211</v>
       </c>
@@ -14396,7 +14448,7 @@
         <v>235.42500000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20">
       <c r="A217" s="46">
         <v>212</v>
       </c>
@@ -14434,7 +14486,7 @@
         <v>237.25</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20">
       <c r="A218" s="46">
         <v>213</v>
       </c>
@@ -14472,7 +14524,7 @@
         <v>239.44</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20">
       <c r="A219" s="46">
         <v>214</v>
       </c>
@@ -14510,7 +14562,7 @@
         <v>241.26499999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20">
       <c r="A220" s="46">
         <v>215</v>
       </c>
@@ -14548,7 +14600,7 @@
         <v>243.45500000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20">
       <c r="A221" s="46">
         <v>216</v>
       </c>
@@ -14586,7 +14638,7 @@
         <v>245.64500000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20">
       <c r="A222" s="46">
         <v>217</v>
       </c>
@@ -14624,7 +14676,7 @@
         <v>247.47</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20">
       <c r="A223" s="46">
         <v>218</v>
       </c>
@@ -14662,7 +14714,7 @@
         <v>249.66</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20">
       <c r="A224" s="46">
         <v>219</v>
       </c>
@@ -14700,7 +14752,7 @@
         <v>251.85</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20">
       <c r="A225" s="46">
         <v>220</v>
       </c>
@@ -14738,7 +14790,7 @@
         <v>254.04</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20">
       <c r="A226" s="46">
         <v>221</v>
       </c>
@@ -14776,7 +14828,7 @@
         <v>256.23</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20">
       <c r="A227" s="46">
         <v>222</v>
       </c>
@@ -14814,7 +14866,7 @@
         <v>258.05500000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20">
       <c r="A228" s="46">
         <v>223</v>
       </c>
@@ -14852,7 +14904,7 @@
         <v>260.245</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20">
       <c r="A229" s="46">
         <v>224</v>
       </c>
@@ -14890,7 +14942,7 @@
         <v>262.435</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20">
       <c r="A230" s="46">
         <v>225</v>
       </c>
@@ -14928,7 +14980,7 @@
         <v>264.625</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20">
       <c r="A231" s="46">
         <v>226</v>
       </c>
@@ -14966,7 +15018,7 @@
         <v>266.815</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20">
       <c r="A232" s="46">
         <v>227</v>
       </c>
@@ -15004,7 +15056,7 @@
         <v>269.005</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20">
       <c r="A233" s="46">
         <v>228</v>
       </c>
@@ -15042,7 +15094,7 @@
         <v>271.19499999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20">
       <c r="A234" s="46">
         <v>229</v>
       </c>
@@ -15080,7 +15132,7 @@
         <v>273.38499999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20">
       <c r="A235" s="46">
         <v>230</v>
       </c>
@@ -15118,7 +15170,7 @@
         <v>275.57499999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20">
       <c r="A236" s="46">
         <v>231</v>
       </c>
@@ -15156,7 +15208,7 @@
         <v>277.76499999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20">
       <c r="A237" s="46">
         <v>232</v>
       </c>
@@ -15194,7 +15246,7 @@
         <v>279.95499999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20">
       <c r="A238" s="46">
         <v>233</v>
       </c>
@@ -15232,7 +15284,7 @@
         <v>282.14499999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20">
       <c r="A239" s="46">
         <v>234</v>
       </c>
@@ -15270,7 +15322,7 @@
         <v>284.33499999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20">
       <c r="A240" s="46">
         <v>235</v>
       </c>
@@ -15308,7 +15360,7 @@
         <v>286.52499999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20">
       <c r="A241" s="46">
         <v>236</v>
       </c>
@@ -15346,7 +15398,7 @@
         <v>289.08</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20">
       <c r="A242" s="46">
         <v>237</v>
       </c>
@@ -15384,7 +15436,7 @@
         <v>291.27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20">
       <c r="A243" s="46">
         <v>238</v>
       </c>
@@ -15422,7 +15474,7 @@
         <v>293.45999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20">
       <c r="A244" s="46">
         <v>239</v>
       </c>
@@ -15460,7 +15512,7 @@
         <v>295.64999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20">
       <c r="A245" s="46">
         <v>240</v>
       </c>
@@ -15498,7 +15550,7 @@
         <v>297.83999999999997</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20">
       <c r="A246" s="46">
         <v>241</v>
       </c>
@@ -15536,7 +15588,7 @@
         <v>300.39499999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20">
       <c r="A247" s="46">
         <v>242</v>
       </c>
@@ -15574,7 +15626,7 @@
         <v>302.58499999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20">
       <c r="A248" s="46">
         <v>243</v>
       </c>
@@ -15612,7 +15664,7 @@
         <v>304.77499999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20">
       <c r="A249" s="46">
         <v>244</v>
       </c>
@@ -15650,7 +15702,7 @@
         <v>306.96499999999997</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20">
       <c r="A250" s="46">
         <v>245</v>
       </c>
@@ -15688,7 +15740,7 @@
         <v>309.52</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20">
       <c r="A251" s="46">
         <v>246</v>
       </c>
@@ -15726,7 +15778,7 @@
         <v>311.70999999999998</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20">
       <c r="A252" s="46">
         <v>247</v>
       </c>
@@ -15764,7 +15816,7 @@
         <v>313.89999999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20">
       <c r="A253" s="46">
         <v>248</v>
       </c>
@@ -15802,7 +15854,7 @@
         <v>316.45499999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20">
       <c r="A254" s="46">
         <v>249</v>
       </c>
@@ -15840,7 +15892,7 @@
         <v>318.64499999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20">
       <c r="A255" s="46">
         <v>250</v>
       </c>
@@ -15878,7 +15930,7 @@
         <v>321.2</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20">
       <c r="A256" s="46">
         <v>251</v>
       </c>
@@ -15916,7 +15968,7 @@
         <v>323.39</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20">
       <c r="A257" s="46">
         <v>252</v>
       </c>
@@ -15954,7 +16006,7 @@
         <v>325.58</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20">
       <c r="A258" s="46">
         <v>253</v>
       </c>
@@ -15992,7 +16044,7 @@
         <v>328.13499999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20">
       <c r="A259" s="46">
         <v>254</v>
       </c>
@@ -16030,7 +16082,7 @@
         <v>330.32499999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20">
       <c r="A260" s="46">
         <v>255</v>
       </c>
@@ -16068,7 +16120,7 @@
         <v>332.88</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20">
       <c r="A261" s="46">
         <v>256</v>
       </c>
@@ -16106,7 +16158,7 @@
         <v>335.07</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20">
       <c r="A262" s="46">
         <v>257</v>
       </c>
@@ -16144,7 +16196,7 @@
         <v>337.26</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20">
       <c r="A263" s="46">
         <v>258</v>
       </c>
@@ -16182,7 +16234,7 @@
         <v>339.815</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20">
       <c r="A264" s="46">
         <v>259</v>
       </c>
@@ -16220,7 +16272,7 @@
         <v>342.005</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20">
       <c r="A265" s="46">
         <v>260</v>
       </c>
@@ -16258,7 +16310,7 @@
         <v>344.56</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20">
       <c r="A266" s="46">
         <v>261</v>
       </c>
@@ -16296,7 +16348,7 @@
         <v>346.75</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20">
       <c r="A267" s="46">
         <v>262</v>
       </c>
@@ -16334,7 +16386,7 @@
         <v>349.30500000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20">
       <c r="A268" s="46">
         <v>263</v>
       </c>
@@ -16372,7 +16424,7 @@
         <v>351.495</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20">
       <c r="A269" s="46">
         <v>264</v>
       </c>
@@ -16410,7 +16462,7 @@
         <v>354.05</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20">
       <c r="A270" s="46">
         <v>265</v>
       </c>
@@ -16448,7 +16500,7 @@
         <v>356.24</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20">
       <c r="A271" s="46">
         <v>266</v>
       </c>
@@ -16486,7 +16538,7 @@
         <v>358.43</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20">
       <c r="A272" s="46">
         <v>267</v>
       </c>
@@ -16524,7 +16576,7 @@
         <v>360.98500000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20">
       <c r="A273" s="46">
         <v>268</v>
       </c>
@@ -16562,7 +16614,7 @@
         <v>363.17500000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20">
       <c r="A274" s="46">
         <v>269</v>
       </c>
@@ -16600,7 +16652,7 @@
         <v>365.73</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20">
       <c r="A275" s="46">
         <v>270</v>
       </c>
@@ -16638,7 +16690,7 @@
         <v>367.92</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20">
       <c r="A276" s="46">
         <v>271</v>
       </c>
@@ -16676,7 +16728,7 @@
         <v>370.47500000000002</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20">
       <c r="A277" s="46">
         <v>272</v>
       </c>
@@ -16714,7 +16766,7 @@
         <v>372.66500000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20">
       <c r="A278" s="46">
         <v>273</v>
       </c>
@@ -16752,7 +16804,7 @@
         <v>375.22</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20">
       <c r="A279" s="46">
         <v>274</v>
       </c>
@@ -16790,7 +16842,7 @@
         <v>377.41</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20">
       <c r="A280" s="46">
         <v>275</v>
       </c>
@@ -16828,7 +16880,7 @@
         <v>379.96499999999997</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20">
       <c r="A281" s="46">
         <v>276</v>
       </c>
@@ -16866,7 +16918,7 @@
         <v>382.15499999999997</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20">
       <c r="A282" s="46">
         <v>277</v>
       </c>
@@ -16904,7 +16956,7 @@
         <v>384.71</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20">
       <c r="A283" s="46">
         <v>278</v>
       </c>
@@ -16942,7 +16994,7 @@
         <v>386.9</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20">
       <c r="A284" s="46">
         <v>279</v>
       </c>
@@ -16980,7 +17032,7 @@
         <v>389.09</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20">
       <c r="A285" s="46">
         <v>280</v>
       </c>
@@ -17018,7 +17070,7 @@
         <v>391.64499999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20">
       <c r="A286" s="46">
         <v>281</v>
       </c>
@@ -17056,7 +17108,7 @@
         <v>393.83499999999998</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20">
       <c r="A287" s="46">
         <v>282</v>
       </c>
@@ -17094,7 +17146,7 @@
         <v>396.39</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20">
       <c r="A288" s="46">
         <v>283</v>
       </c>
@@ -17132,7 +17184,7 @@
         <v>398.58</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20">
       <c r="A289" s="46">
         <v>284</v>
       </c>
@@ -17170,7 +17222,7 @@
         <v>400.77</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20">
       <c r="A290" s="46">
         <v>285</v>
       </c>
@@ -17208,7 +17260,7 @@
         <v>403.32499999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20">
       <c r="A291" s="46">
         <v>286</v>
       </c>
@@ -17246,7 +17298,7 @@
         <v>405.51499999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20">
       <c r="A292" s="46">
         <v>287</v>
       </c>
@@ -17284,7 +17336,7 @@
         <v>407.70499999999998</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20">
       <c r="A293" s="46">
         <v>288</v>
       </c>
@@ -17322,7 +17374,7 @@
         <v>410.26</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20">
       <c r="A294" s="46">
         <v>289</v>
       </c>
@@ -17360,7 +17412,7 @@
         <v>412.45</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20">
       <c r="A295" s="46">
         <v>290</v>
       </c>
@@ -17398,7 +17450,7 @@
         <v>414.64</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20">
       <c r="A296" s="46">
         <v>291</v>
       </c>
@@ -17436,7 +17488,7 @@
         <v>417.19499999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20">
       <c r="A297" s="46">
         <v>292</v>
       </c>
@@ -17474,7 +17526,7 @@
         <v>419.38499999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20">
       <c r="A298" s="46">
         <v>293</v>
       </c>
@@ -17512,7 +17564,7 @@
         <v>421.57499999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20">
       <c r="A299" s="46">
         <v>294</v>
       </c>
@@ -17550,7 +17602,7 @@
         <v>423.76499999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20">
       <c r="A300" s="46">
         <v>295</v>
       </c>
@@ -17588,7 +17640,7 @@
         <v>426.32</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20">
       <c r="A301" s="46">
         <v>296</v>
       </c>
@@ -17626,7 +17678,7 @@
         <v>428.51</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20">
       <c r="A302" s="46">
         <v>297</v>
       </c>
@@ -17664,7 +17716,7 @@
         <v>430.7</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20">
       <c r="A303" s="46">
         <v>298</v>
       </c>
@@ -17702,7 +17754,7 @@
         <v>432.89</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20">
       <c r="A304" s="46">
         <v>299</v>
       </c>
@@ -17740,7 +17792,7 @@
         <v>435.08</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20">
       <c r="A305" s="46">
         <v>300</v>
       </c>
@@ -17778,7 +17830,7 @@
         <v>437.63499999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20">
       <c r="A306" s="46">
         <v>301</v>
       </c>
@@ -17816,7 +17868,7 @@
         <v>439.82499999999999</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20">
       <c r="A307" s="46">
         <v>302</v>
       </c>
@@ -17854,7 +17906,7 @@
         <v>442.01499999999999</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20">
       <c r="A308" s="46">
         <v>303</v>
       </c>
@@ -17892,7 +17944,7 @@
         <v>444.20499999999998</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20">
       <c r="A309" s="46">
         <v>304</v>
       </c>
@@ -17930,7 +17982,7 @@
         <v>446.39499999999998</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20">
       <c r="A310" s="46">
         <v>305</v>
       </c>
@@ -17968,7 +18020,7 @@
         <v>448.58499999999998</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20">
       <c r="A311" s="46">
         <v>306</v>
       </c>
@@ -18006,7 +18058,7 @@
         <v>450.77499999999998</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20">
       <c r="A312" s="46">
         <v>307</v>
       </c>
@@ -18044,7 +18096,7 @@
         <v>452.96499999999997</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20">
       <c r="A313" s="46">
         <v>308</v>
       </c>
@@ -18082,7 +18134,7 @@
         <v>455.15499999999997</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20">
       <c r="A314" s="46">
         <v>309</v>
       </c>
@@ -18120,7 +18172,7 @@
         <v>457.34500000000003</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20">
       <c r="A315" s="46">
         <v>310</v>
       </c>
@@ -18158,7 +18210,7 @@
         <v>459.53500000000003</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20">
       <c r="A316" s="46">
         <v>311</v>
       </c>
@@ -18196,7 +18248,7 @@
         <v>461.72500000000002</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20">
       <c r="A317" s="46">
         <v>312</v>
       </c>
@@ -18234,7 +18286,7 @@
         <v>463.91500000000002</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20">
       <c r="A318" s="46">
         <v>313</v>
       </c>
@@ -18272,7 +18324,7 @@
         <v>465.74</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20">
       <c r="A319" s="46">
         <v>314</v>
       </c>
@@ -18310,7 +18362,7 @@
         <v>467.93</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20">
       <c r="A320" s="46">
         <v>315</v>
       </c>
@@ -18348,7 +18400,7 @@
         <v>470.12</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20">
       <c r="A321" s="46">
         <v>316</v>
       </c>
@@ -18386,7 +18438,7 @@
         <v>472.31</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20">
       <c r="A322" s="46">
         <v>317</v>
       </c>
@@ -18424,7 +18476,7 @@
         <v>474.13499999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20">
       <c r="A323" s="46">
         <v>318</v>
       </c>
@@ -18462,7 +18514,7 @@
         <v>476.32499999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20">
       <c r="A324" s="46">
         <v>319</v>
       </c>
@@ -18500,7 +18552,7 @@
         <v>478.51499999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20">
       <c r="A325" s="46">
         <v>320</v>
       </c>
@@ -18538,7 +18590,7 @@
         <v>480.34</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20">
       <c r="A326" s="46">
         <v>321</v>
       </c>
@@ -18576,7 +18628,7 @@
         <v>482.53</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20">
       <c r="A327" s="46">
         <v>322</v>
       </c>
@@ -18614,7 +18666,7 @@
         <v>484.72</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20">
       <c r="A328" s="46">
         <v>323</v>
       </c>
@@ -18652,7 +18704,7 @@
         <v>486.54500000000002</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20">
       <c r="A329" s="46">
         <v>324</v>
       </c>
@@ -18690,7 +18742,7 @@
         <v>488.73500000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20">
       <c r="A330" s="46">
         <v>325</v>
       </c>
@@ -18728,7 +18780,7 @@
         <v>490.56</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20">
       <c r="A331" s="46">
         <v>326</v>
       </c>
@@ -18766,7 +18818,7 @@
         <v>492.75</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20">
       <c r="A332" s="46">
         <v>327</v>
       </c>
@@ -18804,7 +18856,7 @@
         <v>494.57499999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20">
       <c r="A333" s="46">
         <v>328</v>
       </c>
@@ -18842,7 +18894,7 @@
         <v>496.76499999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20">
       <c r="A334" s="46">
         <v>329</v>
       </c>
@@ -18880,7 +18932,7 @@
         <v>498.59</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20">
       <c r="A335" s="46">
         <v>330</v>
       </c>
@@ -18918,7 +18970,7 @@
         <v>500.41500000000002</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20">
       <c r="A336" s="46">
         <v>331</v>
       </c>
@@ -18956,7 +19008,7 @@
         <v>502.60500000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20">
       <c r="A337" s="46">
         <v>332</v>
       </c>
@@ -18994,7 +19046,7 @@
         <v>504.43</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20">
       <c r="A338" s="46">
         <v>333</v>
       </c>
@@ -19032,7 +19084,7 @@
         <v>506.255</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20">
       <c r="A339" s="46">
         <v>334</v>
       </c>
@@ -19070,7 +19122,7 @@
         <v>508.08</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20">
       <c r="A340" s="46">
         <v>335</v>
       </c>
@@ -19108,7 +19160,7 @@
         <v>510.27</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20">
       <c r="A341" s="46">
         <v>336</v>
       </c>
@@ -19146,7 +19198,7 @@
         <v>512.09500000000003</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20">
       <c r="A342" s="46">
         <v>337</v>
       </c>
@@ -19184,7 +19236,7 @@
         <v>513.91999999999996</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20">
       <c r="A343" s="46">
         <v>338</v>
       </c>
@@ -19222,7 +19274,7 @@
         <v>515.745</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20">
       <c r="A344" s="46">
         <v>339</v>
       </c>
@@ -19260,7 +19312,7 @@
         <v>517.57000000000005</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20">
       <c r="A345" s="46">
         <v>340</v>
       </c>
@@ -19298,7 +19350,7 @@
         <v>519.39499999999998</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20">
       <c r="A346" s="46">
         <v>341</v>
       </c>
@@ -19336,7 +19388,7 @@
         <v>521.22</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20">
       <c r="A347" s="46">
         <v>342</v>
       </c>
@@ -19374,7 +19426,7 @@
         <v>523.04499999999996</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20">
       <c r="A348" s="46">
         <v>343</v>
       </c>
@@ -19412,7 +19464,7 @@
         <v>524.87</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20">
       <c r="A349" s="46">
         <v>344</v>
       </c>
@@ -19450,7 +19502,7 @@
         <v>526.69500000000005</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20">
       <c r="A350" s="46">
         <v>345</v>
       </c>
@@ -19488,7 +19540,7 @@
         <v>528.52</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20">
       <c r="A351" s="46">
         <v>346</v>
       </c>
@@ -19526,7 +19578,7 @@
         <v>529.98</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20">
       <c r="A352" s="46">
         <v>347</v>
       </c>
@@ -19564,7 +19616,7 @@
         <v>531.80499999999995</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20">
       <c r="A353" s="46">
         <v>348</v>
       </c>
@@ -19602,7 +19654,7 @@
         <v>533.63</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20">
       <c r="A354" s="46">
         <v>349</v>
       </c>
@@ -19640,7 +19692,7 @@
         <v>535.45500000000004</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20">
       <c r="A355" s="46">
         <v>350</v>
       </c>
@@ -19678,7 +19730,7 @@
         <v>536.91499999999996</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20">
       <c r="A356" s="46">
         <v>351</v>
       </c>
@@ -19716,7 +19768,7 @@
         <v>538.74</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20">
       <c r="A357" s="46">
         <v>352</v>
       </c>
@@ -19754,7 +19806,7 @@
         <v>540.20000000000005</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20">
       <c r="A358" s="46">
         <v>353</v>
       </c>
@@ -19792,7 +19844,7 @@
         <v>542.02499999999998</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20">
       <c r="A359" s="46">
         <v>354</v>
       </c>
@@ -19830,7 +19882,7 @@
         <v>543.85</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20">
       <c r="A360" s="46">
         <v>355</v>
       </c>
@@ -19868,7 +19920,7 @@
         <v>545.30999999999995</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20">
       <c r="A361" s="46">
         <v>356</v>
       </c>
@@ -19906,7 +19958,7 @@
         <v>547.13499999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20">
       <c r="A362" s="46">
         <v>357</v>
       </c>
@@ -19944,7 +19996,7 @@
         <v>548.59500000000003</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20">
       <c r="A363" s="46">
         <v>358</v>
       </c>
@@ -19982,7 +20034,7 @@
         <v>550.05499999999995</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20">
       <c r="A364" s="46">
         <v>359</v>
       </c>
@@ -20020,7 +20072,7 @@
         <v>551.88</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20">
       <c r="A365" s="46">
         <v>360</v>
       </c>
@@ -20058,7 +20110,7 @@
         <v>553.34</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20">
       <c r="A366" s="46">
         <v>361</v>
       </c>
@@ -20096,7 +20148,7 @@
         <v>554.79999999999995</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20">
       <c r="A367" s="46">
         <v>362</v>
       </c>
@@ -20134,7 +20186,7 @@
         <v>556.625</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20">
       <c r="A368" s="46">
         <v>363</v>
       </c>
@@ -20172,7 +20224,7 @@
         <v>558.08500000000004</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20">
       <c r="A369" s="46">
         <v>364</v>
       </c>
@@ -20210,7 +20262,7 @@
         <v>559.54499999999996</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20">
       <c r="A370" s="46">
         <v>365</v>
       </c>
@@ -20248,7 +20300,7 @@
         <v>561.005</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20">
       <c r="A371" s="46">
         <v>366</v>
       </c>
@@ -20286,7 +20338,7 @@
         <v>562.46500000000003</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20">
       <c r="A372" s="46">
         <v>367</v>
       </c>
@@ -20324,7 +20376,7 @@
         <v>563.92499999999995</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20">
       <c r="A373" s="46">
         <v>368</v>
       </c>
@@ -20362,7 +20414,7 @@
         <v>565.38499999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20">
       <c r="A374" s="46">
         <v>369</v>
       </c>
@@ -20400,7 +20452,7 @@
         <v>566.84500000000003</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20">
       <c r="A375" s="46">
         <v>370</v>
       </c>
@@ -20438,7 +20490,7 @@
         <v>568.30499999999995</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20">
       <c r="A376" s="46">
         <v>371</v>
       </c>
@@ -20476,7 +20528,7 @@
         <v>569.76499999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20">
       <c r="A377" s="46">
         <v>372</v>
       </c>
@@ -20514,7 +20566,7 @@
         <v>571.22500000000002</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20">
       <c r="A378" s="46">
         <v>373</v>
       </c>
@@ -20552,7 +20604,7 @@
         <v>572.68499999999995</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20">
       <c r="A379" s="46">
         <v>374</v>
       </c>
@@ -20590,7 +20642,7 @@
         <v>574.14499999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20">
       <c r="A380" s="46">
         <v>375</v>
       </c>
@@ -20628,7 +20680,7 @@
         <v>575.60500000000002</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20">
       <c r="A381" s="46">
         <v>376</v>
       </c>
@@ -20666,7 +20718,7 @@
         <v>576.70000000000005</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20">
       <c r="A382" s="46">
         <v>377</v>
       </c>
@@ -20704,7 +20756,7 @@
         <v>578.16</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20">
       <c r="A383" s="46">
         <v>378</v>
       </c>
@@ -20742,7 +20794,7 @@
         <v>579.62</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20">
       <c r="A384" s="46">
         <v>379</v>
       </c>
@@ -20780,7 +20832,7 @@
         <v>580.71500000000003</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20">
       <c r="A385" s="46">
         <v>380</v>
       </c>
@@ -20818,7 +20870,7 @@
         <v>582.17499999999995</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20">
       <c r="A386" s="46">
         <v>381</v>
       </c>
@@ -20856,7 +20908,7 @@
         <v>583.63499999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20">
       <c r="A387" s="46">
         <v>382</v>
       </c>
@@ -20894,7 +20946,7 @@
         <v>584.73</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20">
       <c r="A388" s="46">
         <v>383</v>
       </c>
@@ -20932,7 +20984,7 @@
         <v>586.19000000000005</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20">
       <c r="A389" s="46">
         <v>384</v>
       </c>
@@ -20970,7 +21022,7 @@
         <v>587.28499999999997</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20">
       <c r="A390" s="46">
         <v>385</v>
       </c>
@@ -21008,7 +21060,7 @@
         <v>588.745</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20">
       <c r="A391" s="46">
         <v>386</v>
       </c>
@@ -21046,7 +21098,7 @@
         <v>589.84</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20">
       <c r="A392" s="46">
         <v>387</v>
       </c>
@@ -21084,7 +21136,7 @@
         <v>590.93499999999995</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20">
       <c r="A393" s="46">
         <v>388</v>
       </c>
@@ -21122,7 +21174,7 @@
         <v>592.39499999999998</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20">
       <c r="A394" s="46">
         <v>389</v>
       </c>
@@ -21160,7 +21212,7 @@
         <v>593.49</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20">
       <c r="A395" s="46">
         <v>390</v>
       </c>
@@ -21198,7 +21250,7 @@
         <v>594.58500000000004</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20">
       <c r="A396" s="46">
         <v>391</v>
       </c>
@@ -21236,7 +21288,7 @@
         <v>596.04499999999996</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20">
       <c r="A397" s="46">
         <v>392</v>
       </c>
@@ -21274,7 +21326,7 @@
         <v>597.14</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20">
       <c r="A398" s="46">
         <v>393</v>
       </c>
@@ -21312,7 +21364,7 @@
         <v>598.23500000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20">
       <c r="A399" s="46">
         <v>394</v>
       </c>
@@ -21350,7 +21402,7 @@
         <v>599.33000000000004</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20">
       <c r="A400" s="46">
         <v>395</v>
       </c>
@@ -21388,7 +21440,7 @@
         <v>600.42499999999995</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20">
       <c r="A401" s="46">
         <v>396</v>
       </c>
@@ -21426,7 +21478,7 @@
         <v>601.88499999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20">
       <c r="A402" s="46">
         <v>397</v>
       </c>
@@ -21464,7 +21516,7 @@
         <v>602.98</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20">
       <c r="A403" s="46">
         <v>398</v>
       </c>
@@ -21502,7 +21554,7 @@
         <v>604.07500000000005</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20">
       <c r="A404" s="46">
         <v>399</v>
       </c>
@@ -21540,7 +21592,7 @@
         <v>605.16999999999996</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20">
       <c r="A405" s="46">
         <v>400</v>
       </c>
@@ -21589,26 +21641,31 @@
     <mergeCell ref="P1:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Taul6"/>
+  <sheetPr codeName="Taul6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21619,7 +21676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -21627,7 +21684,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -21635,7 +21692,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -21643,7 +21700,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -21651,7 +21708,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -21662,36 +21719,42 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4097" r:id="rId4" name="List Box 1">
+            <control shapeId="4097" r:id="rId3" name="List Box 1">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>139700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>